--- a/organize/raci-template.xlsx
+++ b/organize/raci-template.xlsx
@@ -1,38 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janet\Documents\Fusion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brblanch\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8F0F911-8A0D-494E-B59C-39FDE36733B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B8FA09A-F092-47F1-84B4-33B8A2EA4A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{AB571973-26AF-4BE6-A95F-82C0E308CB25}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{AB571973-26AF-4BE6-A95F-82C0E308CB25}"/>
   </bookViews>
   <sheets>
     <sheet name="Org Alignment" sheetId="1" r:id="rId1"/>
     <sheet name="MVP Best Practice" sheetId="2" r:id="rId2"/>
     <sheet name="Fully-staffed Best Practice" sheetId="4" r:id="rId3"/>
+    <sheet name="Example Fully staffed BP" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="130">
+  <si>
+    <t>Define high level alignment of required capabilities across the org structure</t>
+  </si>
+  <si>
+    <t>How does (or will) this capability map to organizational structures?</t>
+  </si>
+  <si>
+    <t>Team(s) accountable for providing this capability?</t>
+  </si>
+  <si>
+    <t>Leader accountable for these outcomes</t>
+  </si>
+  <si>
+    <t>Email address to use for questions for that accountable leader</t>
+  </si>
   <si>
     <t>Capability</t>
   </si>
@@ -40,6 +51,9 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Org Structure Decision</t>
+  </si>
+  <si>
     <t>Accountable Team</t>
   </si>
   <si>
@@ -52,78 +66,72 @@
     <t>Cloud Adoption</t>
   </si>
   <si>
+    <t>Deliver technical solutions</t>
+  </si>
+  <si>
+    <t>Cloud Strategy</t>
+  </si>
+  <si>
+    <t>Align technical change to business needs</t>
+  </si>
+  <si>
     <t>Cloud Operations</t>
   </si>
   <si>
-    <t>Cloud Strategy</t>
+    <t>Support and operate adopted solutions</t>
   </si>
   <si>
     <t>Cloud Center of Excellence</t>
   </si>
   <si>
+    <t>Improve quality, speed, and resiliency of adoption</t>
+  </si>
+  <si>
     <t>Cloud Governance</t>
   </si>
   <si>
+    <t>Manage risk, drive consistency, governance, and compliance</t>
+  </si>
+  <si>
     <t>Cloud Platform</t>
   </si>
   <si>
+    <t>Operate and mature the platform</t>
+  </si>
+  <si>
     <t>Cloud Automation</t>
   </si>
   <si>
-    <t>Org Structure Decision</t>
-  </si>
-  <si>
-    <t>Deliver technical solutions</t>
-  </si>
-  <si>
-    <t>Align technical change to business needs</t>
-  </si>
-  <si>
-    <t>Support and operate adopted solutions</t>
-  </si>
-  <si>
-    <t>Improve quality, speed, and resiliency of adoption</t>
-  </si>
-  <si>
-    <t>Operate and mature the platform</t>
-  </si>
-  <si>
     <t>Accelerate adoption and innovation</t>
   </si>
   <si>
-    <t>Manage risk, drive consistency, governance, and compliance</t>
-  </si>
-  <si>
-    <t>How does (or will) this capability map to organizational structures?</t>
-  </si>
-  <si>
-    <t>Email address to use for questions for that accountable leader</t>
-  </si>
-  <si>
-    <t>Team(s) accountable for providing this capability?</t>
+    <t>Define Cloud Adoption Team(s) alignment</t>
+  </si>
+  <si>
+    <t>Document Subject Matter experts</t>
   </si>
   <si>
     <t>Cloud Adoption Team(s): There are often multiple cloud adoption teams in most operating models. The following expands on the Cloud Adoption Teams' accountability</t>
   </si>
   <si>
+    <t>In addition to core capability alignment, there will be a number of Subject Matter Experts (SMEs) required to deliver on cloud adoption and cloud operations</t>
+  </si>
+  <si>
+    <t>Name of each team</t>
+  </si>
+  <si>
+    <t>List of workloads, data centers, or portfolios being adopted by this team</t>
+  </si>
+  <si>
+    <t>Leader responsible for the outcomes associated with this adoption effort</t>
+  </si>
+  <si>
     <t>Cloud Adoption Team</t>
   </si>
   <si>
     <t>Focus area</t>
   </si>
   <si>
-    <t>Name of each team</t>
-  </si>
-  <si>
-    <t>List of workloads, data centers, or portfolios being adopted by this team</t>
-  </si>
-  <si>
-    <t>Leader responsible for the outcomes associated with this adoption effort</t>
-  </si>
-  <si>
-    <t>In addition to core capability alignment, there will be a number of Subject Matter Experts (SMEs) required to deliver on cloud adoption and cloud operations</t>
-  </si>
-  <si>
     <t>Expertise</t>
   </si>
   <si>
@@ -163,15 +171,12 @@
     <t>Application Owner</t>
   </si>
   <si>
+    <t>Project Lead(s)</t>
+  </si>
+  <si>
     <t>Architect(s)</t>
   </si>
   <si>
-    <t>Project Lead(s)</t>
-  </si>
-  <si>
-    <t>Leader accountable for these outcomes</t>
-  </si>
-  <si>
     <t>RACI Chart for the MVP Best Practice</t>
   </si>
   <si>
@@ -280,20 +285,308 @@
     <t>Cloud automation team</t>
   </si>
   <si>
-    <t>Define Cloud Adoption Team(s) alignment</t>
-  </si>
-  <si>
-    <t>Define high level alignment of required capabilities across the org structure</t>
-  </si>
-  <si>
-    <t>Document Subject Matter experts</t>
+    <t>Training and Cert</t>
+  </si>
+  <si>
+    <t>Deliverables</t>
+  </si>
+  <si>
+    <t>Skills/Roles</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exec Sponsor
+CDO
+IT/Infra Lead
+Finance
+Line of business
+Human resources
+Operations
+Enterprise architecture
+IT infrastructure
+Application groups
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Project managers (often with agile project management experience)</t>
+    </r>
+  </si>
+  <si>
+    <t>IT operations
+Outsource IT operations vendors
+Cloud service providers
+Cloud-managed service providers
+Application-specific operations teams
+Business application operations teams
+DevOps teams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT governance
+Enterprise architecture
+Security
+IT operations
+IT infrastructure
+Networking
+Identity
+Virtualization
+Business continuity and disaster recovery
+Application owners within IT
+Finance owners
+</t>
+  </si>
+  <si>
+    <t>Enterprise architecture
+IT operations
+IT governance
+IT infrastructure
+Networking
+Identity
+Virtualization
+Business continuity and disaster recovery
+Application owners within IT</t>
+  </si>
+  <si>
+    <t>DevOps engineers
+Developers with DevOps and infrastructure expertise
+IT engineers with DevOps and automation expertise</t>
+  </si>
+  <si>
+    <t>Maintain asset and workload inventory
+Monitor performance of workloads
+Maintain operational compliance
+Protect workloads and associated assets
+Recover assets if there is performance degradation or business interruption
+Mature functionality of core platforms
+Continuously improve workload performance
+Improve budgetary and design requirements of workloads to fit commitments to the business</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cloud adoption team - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Cloud adoption teams are the modern-day equivalent of technical implementation teams or project teams. The nature of the cloud might require more fluid team structures.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cloud operations team - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Focus on delivering maximum workload performance and minimum business interruptions within an agreed-upon operations budget</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cloud governance team - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>A cloud governance team ensures that cloud-adoption risks and risk tolerance are properly evaluated and managed. The team identifies risks that can't be tolerated by the business, and it converts risks into governing corporate policies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cloud platform team - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Creation and support of your cloud platform or landing zones</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cloud automation team - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>The primary duty of cloud automation is to own and advance the solution catalog. The solution catalog is a collection of prebuilt solutions or automation templates</t>
+    </r>
+  </si>
+  <si>
+    <t>Solution Architects
+Infrastructure implementers
+DevOps engineers
+Application developers
+Data scientists
+Data or application platform specialists</t>
+  </si>
+  <si>
+    <t>Team and key accountability</t>
+  </si>
+  <si>
+    <t>AZ900, AZ104, AZ303, AZ304</t>
+  </si>
+  <si>
+    <t>AZ900, AZ104, DP203, AZ204, AZ400</t>
+  </si>
+  <si>
+    <t>AZ900, AZ104, DP203, AZ204, AZ400, AZ500</t>
+  </si>
+  <si>
+    <t>AZ900, TOGAF, PMBOK, PMP, PROSCI, DP900, AI900</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Cloud strategy team </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- The Cloud Strategy Team is responsible for leading the cloud adoption within your organization, supporting all business outcomes, people and processes changes and technical projects identified within this plan </t>
+    </r>
+  </si>
+  <si>
+    <t>Review and provide feedback on business outcomes and financial models.
+Aid in establishing clear motivations for cloud adoption that align with corporate objectives.
+Define relevant learning metrics that clearly communicate progress toward business outcomes.
+Understand business risks introduced by the plan, represent the business's tolerance for risk.
+Review and approve the rationalization of the digital estate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oversee change management processes.
+Manage the release and sprint backlogs.
+</t>
+  </si>
+  <si>
+    <t>Execute the rationalization of the digital estate.
+Review, validate, and advance the prioritized migration backlog.
+Begin execution of the first workload as a learning opportunity. Build and maintain the adoption landing zone in conjunction with governance requirements.
+Execute the technical tasks outlined in the sprint backlogs.</t>
+  </si>
+  <si>
+    <t>Curate or develop solutions based on the prioritized backlog.
+Ensure solutions align to platform requirements.
+Ensure solutions are consistently applied and meet existing governance and compliance requirements.
+Create and validate solutions in the catalog.                         Monitor adoption plans and progress against the prioritized migration backlog.
+Identify opportunities to accelerate cloud adoption, reduce effort through automation, and improve security, stability, and consistency.
+Prioritize a backlog of solutions for the solution catalog that delivers the most value given other strategic inputs.</t>
+  </si>
+  <si>
+    <t>Continuously improve the platform.
+Keep up with new innovations in the cloud platform.
+Bring new cloud functionality to support business value creation.
+Suggest self-service solutions.
+Ensure solutions meet existing governance and compliance requirements.
+Create and validate deployment of platform architecture.
+Review release plans for sources of new platform requirements.</t>
+  </si>
+  <si>
+    <t>Build and maintain the cloud platform to support solutions.
+Define and implement the platform architecture.
+Operate and manage the cloud platform.</t>
+  </si>
+  <si>
+    <t>Deployment templates</t>
+  </si>
+  <si>
+    <t>Best practices source code</t>
+  </si>
+  <si>
+    <t>Azure Advisor, Operations management workbook, Azure Monitor, Azure Sentinel</t>
+  </si>
+  <si>
+    <t>Sample Azure Tools, CAF Templates and Assessments</t>
+  </si>
+  <si>
+    <t>Balance competing forces of transformation and risk mitigation.
+Ensures that the cloud migration team is aware of data and asset classification, as well as architecture guidelines that govern adoption. 
+Works with the cloud center of excellence to apply automated approaches to governing cloud environments.
+Understand business risks introduced during each release.
+Represent the business's tolerance for risk.
+Aid in the incremental improvement of policy and compliance requirements.</t>
+  </si>
+  <si>
+    <t>Strategy and Plan Template. Strategic Migration Assessment and Readiness Tool, Cloud journey tracker. Azure Migrate fpr Assessment, Movere, Third party tools like Cloudamize, UnifyCloud, CAST from our partners</t>
+  </si>
+  <si>
+    <t>AZ900, AZ104, TOGAF, PMBOK, PMP, PROSC, DP900, AI900</t>
+  </si>
+  <si>
+    <t>CAF Foundation blueprint, Governance benchmark assessment, Governance discipline template, Cost Management discipline template, Deployment Acceleration discipline template, Identity Baseline discipline template, Resource Consistency discipline template, Security Baseline discipline template,  Azure Security Benchmark, Azure governance visualizer, Governance Benchmark Tool</t>
+  </si>
+  <si>
+    <t>Azure Migrate, Cloud adoption plan generator, CAF Migration landing zone blueprint, Terraform modules, Terraform registry, Datacenter migration discovery checklist, Migration templates, Microsoft Azure Well-Architected Framework/Review. Azure Architecture Centre - Reference Architectures, Design Principles, Azure Migration Guide, Azure Innovation guide</t>
+  </si>
+  <si>
+    <t>Microsoft Azure Well-Architected Framework,Azure Advisor Score, Landing Zone Templates</t>
+  </si>
+  <si>
+    <t>Cloud Security</t>
+  </si>
+  <si>
+    <t>Manage and operate the security posture</t>
+  </si>
+  <si>
+    <t>Leadership</t>
+  </si>
+  <si>
+    <t>Posture &amp; Compliance</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Cloud security team</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>CCoE-Cloud security</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,6 +637,33 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -365,7 +685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -587,21 +907,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -654,26 +959,231 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -693,31 +1203,175 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -830,13 +1484,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>375808</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>147768</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1175,87 +1829,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB8EBB1-C082-49F7-95F1-16A7569FC7E5}">
-  <dimension ref="B1:J34"/>
+  <dimension ref="B1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.59765625" customWidth="1"/>
-    <col min="4" max="4" width="27.265625" customWidth="1"/>
-    <col min="5" max="5" width="21.19921875" customWidth="1"/>
-    <col min="6" max="6" width="19.06640625" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.73046875" customWidth="1"/>
-    <col min="9" max="9" width="19.19921875" customWidth="1"/>
-    <col min="10" max="10" width="17.46484375" customWidth="1"/>
+    <col min="3" max="3" width="40.54296875" customWidth="1"/>
+    <col min="4" max="4" width="27.26953125" customWidth="1"/>
+    <col min="5" max="5" width="21.1796875" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="20.26953125" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" customWidth="1"/>
+    <col min="9" max="9" width="19.1796875" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:10" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
-    </row>
-    <row r="3" spans="2:10" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B4" s="19" t="s">
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="92"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="37"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="E3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B5" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B6" s="38" t="s">
-        <v>7</v>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="32" t="s">
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -1263,365 +1917,389 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B7" s="38" t="s">
-        <v>6</v>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="32" t="s">
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B8" s="38" t="s">
-        <v>8</v>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="32" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B9" s="38" t="s">
-        <v>9</v>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="32" t="s">
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B10" s="38" t="s">
-        <v>10</v>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="32" t="s">
+        <v>122</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="39" t="s">
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="95"/>
+    </row>
+    <row r="16" spans="2:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="87"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B17" s="37"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="87"/>
+    </row>
+    <row r="18" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="36"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B19" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="11"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="12"/>
+      <c r="G20" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="25"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21" s="11"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="12"/>
+      <c r="G21" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="25"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="11"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="12"/>
+      <c r="G22" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="25"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="11"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="12"/>
+      <c r="G23" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="25"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="11"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="12"/>
+      <c r="G24" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="25"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="11"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="12"/>
+      <c r="G25" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="25"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="11"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="12"/>
+      <c r="G26" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="25"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="11"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="12"/>
+      <c r="G27" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="25"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="11"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="12"/>
+      <c r="G28" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="25"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="11"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="12"/>
+      <c r="G29" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="10"/>
+      <c r="J29" s="25"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="11"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="12"/>
+      <c r="G30" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="2:10" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="14" spans="2:10" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="50"/>
-    </row>
-    <row r="15" spans="2:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="42"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="42"/>
-    </row>
-    <row r="17" spans="2:10" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B18" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B19" s="14"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="15"/>
-      <c r="G19" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="30"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B20" s="14"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="15"/>
-      <c r="G20" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="30"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B21" s="14"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="15"/>
-      <c r="G21" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="30"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B22" s="14"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="15"/>
-      <c r="G22" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="30"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B23" s="14"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="15"/>
-      <c r="G23" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="30"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B24" s="14"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="15"/>
-      <c r="G24" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="30"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B25" s="14"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="15"/>
-      <c r="G25" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="30"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B26" s="14"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="15"/>
-      <c r="G26" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="30"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B27" s="14"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="15"/>
-      <c r="G27" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="30"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B28" s="14"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="15"/>
-      <c r="G28" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="30"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B29" s="14"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="15"/>
-      <c r="G29" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="30"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B30" s="14"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="15"/>
-      <c r="G30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="30"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B31" s="14"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="15"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="30"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B32" s="14"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="15"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="30"/>
-    </row>
-    <row r="33" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="33"/>
-    </row>
-    <row r="34" spans="2:10" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="H30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="10"/>
+      <c r="J30" s="25"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="11"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="12"/>
+      <c r="G31" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" s="10"/>
+      <c r="J31" s="25"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="11"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="12"/>
+      <c r="G32" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="25"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="11"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="12"/>
+      <c r="G33" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="I33" s="10"/>
+      <c r="J33" s="25"/>
+    </row>
+    <row r="34" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="G34" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="I34" s="26"/>
+      <c r="J34" s="27"/>
+    </row>
+    <row r="35" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="G15:J16"/>
+    <mergeCell ref="G16:J17"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B2:G2"/>
     <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D11" xr:uid="{413798D1-14CC-49B8-BDBB-05FC1C736071}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D12" xr:uid="{413798D1-14CC-49B8-BDBB-05FC1C736071}">
       <formula1>"""Align to org structure"", ""Planned alignment"",  ""Not needed"", ""To be evaluated"", "</formula1>
     </dataValidation>
   </dataValidations>
@@ -1631,11 +2309,12 @@
     <hyperlink ref="B7" r:id="rId3" xr:uid="{F83D6C1A-A1AD-4037-B3B1-06923B4D0276}"/>
     <hyperlink ref="B8" r:id="rId4" xr:uid="{EE1058B6-9BD3-40FB-8288-1C65BB7F2B24}"/>
     <hyperlink ref="B9" r:id="rId5" xr:uid="{1B3B4551-1D96-4690-A3FA-72E549C64BFE}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{125496A0-20BD-4FEB-AF09-F7381CB360F5}"/>
-    <hyperlink ref="B11" r:id="rId7" xr:uid="{367B5135-8B18-4C27-A7E0-8B259C5CAD6E}"/>
+    <hyperlink ref="B11" r:id="rId6" xr:uid="{125496A0-20BD-4FEB-AF09-F7381CB360F5}"/>
+    <hyperlink ref="B12" r:id="rId7" xr:uid="{367B5135-8B18-4C27-A7E0-8B259C5CAD6E}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{D15CE963-4F62-4302-A01F-59F42D5A85CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1643,188 +2322,188 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4779232-359B-44B9-A18F-B80481F6894A}">
   <dimension ref="B2:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.19921875" customWidth="1"/>
-    <col min="3" max="3" width="22.796875" customWidth="1"/>
-    <col min="4" max="4" width="16.53125" customWidth="1"/>
-    <col min="5" max="5" width="20.53125" customWidth="1"/>
-    <col min="6" max="6" width="17.19921875" customWidth="1"/>
-    <col min="7" max="7" width="14.59765625" customWidth="1"/>
-    <col min="8" max="8" width="15.53125" customWidth="1"/>
-    <col min="9" max="9" width="14.06640625" customWidth="1"/>
-    <col min="10" max="10" width="17.06640625" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="28.5" x14ac:dyDescent="0.85">
-      <c r="B2" s="34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="B2" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="33.4" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B4" s="35"/>
-      <c r="C4" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="35" t="s">
+    </row>
+    <row r="4" spans="2:10" ht="33.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="D4" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="E4" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="F4" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="G4" s="29" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="36" t="s">
+      <c r="H4" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="I4" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="36" t="s">
+      <c r="J4" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="36" t="s">
+    </row>
+    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="30" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="36" t="s">
+      <c r="C5" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-    </row>
-    <row r="8" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="37" t="s">
+      <c r="D5" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="37" t="s">
+      <c r="C6" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B8" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="C8" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="D8" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="E8" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="F8" s="31" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="G8" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1847,323 +2526,813 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72EF455-C7C4-4BE0-B05C-CCAD85B1AB1E}">
-  <dimension ref="B2:J24"/>
+  <dimension ref="B2:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.19921875" customWidth="1"/>
-    <col min="3" max="3" width="20.9296875" customWidth="1"/>
-    <col min="4" max="4" width="16.53125" customWidth="1"/>
-    <col min="5" max="5" width="20.53125" customWidth="1"/>
-    <col min="6" max="6" width="17.19921875" customWidth="1"/>
-    <col min="7" max="7" width="14.59765625" customWidth="1"/>
-    <col min="8" max="8" width="15.53125" customWidth="1"/>
-    <col min="9" max="9" width="14.06640625" customWidth="1"/>
-    <col min="10" max="10" width="17.06640625" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" customWidth="1"/>
+    <col min="7" max="8" width="14.54296875" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="28.5" x14ac:dyDescent="0.85">
-      <c r="B2" s="34" t="s">
+    <row r="2" spans="2:11" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="B2" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="33.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+    </row>
+    <row r="14" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B14" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="33.4" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B5" s="35"/>
-      <c r="C5" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="36" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="36" t="s">
+      <c r="C25" t="s">
         <v>78</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" s="36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" s="36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-    </row>
-    <row r="13" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B13" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{3234C89B-9AB2-478E-9316-4F988EA27559}"/>
-    <hyperlink ref="C13" r:id="rId2" xr:uid="{3945B433-F36A-47F7-81F3-3217A70B44EA}"/>
-    <hyperlink ref="D13" r:id="rId3" xr:uid="{66EC8D73-7E0C-46A6-B289-AC037C945EBA}"/>
-    <hyperlink ref="E13" r:id="rId4" xr:uid="{37E5CC3F-B59C-4D9C-B0D9-C9C2648545D9}"/>
-    <hyperlink ref="F13" r:id="rId5" xr:uid="{DD4FF0E3-EAE0-469C-ACDD-C865EBB378ED}"/>
-    <hyperlink ref="G13" r:id="rId6" xr:uid="{7C8E9920-0270-4770-84B0-00A2DD3F4658}"/>
-    <hyperlink ref="H13" r:id="rId7" xr:uid="{7002ECE4-5F74-45CB-8AAA-D54AAD68F48C}"/>
-    <hyperlink ref="I13" r:id="rId8" xr:uid="{A952527B-8DAC-4C2B-BB35-4E0F883A762B}"/>
-    <hyperlink ref="J13" r:id="rId9" xr:uid="{03970A6A-02B7-44F7-86E2-F33B08E4D592}"/>
+    <hyperlink ref="C14" r:id="rId2" xr:uid="{3945B433-F36A-47F7-81F3-3217A70B44EA}"/>
+    <hyperlink ref="D14" r:id="rId3" xr:uid="{66EC8D73-7E0C-46A6-B289-AC037C945EBA}"/>
+    <hyperlink ref="E14" r:id="rId4" xr:uid="{37E5CC3F-B59C-4D9C-B0D9-C9C2648545D9}"/>
+    <hyperlink ref="F14" r:id="rId5" xr:uid="{DD4FF0E3-EAE0-469C-ACDD-C865EBB378ED}"/>
+    <hyperlink ref="G14" r:id="rId6" xr:uid="{7C8E9920-0270-4770-84B0-00A2DD3F4658}"/>
+    <hyperlink ref="I14" r:id="rId7" xr:uid="{7002ECE4-5F74-45CB-8AAA-D54AAD68F48C}"/>
+    <hyperlink ref="J14" r:id="rId8" xr:uid="{A952527B-8DAC-4C2B-BB35-4E0F883A762B}"/>
+    <hyperlink ref="K14" r:id="rId9" xr:uid="{03970A6A-02B7-44F7-86E2-F33B08E4D592}"/>
+    <hyperlink ref="H14" r:id="rId10" xr:uid="{28BD77ED-2D3E-4929-BB52-7E05B9F6BC04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
-  <drawing r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
+  <drawing r:id="rId12"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7976A494-BCBD-49B6-B4BB-BF67D4A68194}">
+  <dimension ref="A2:M21"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.54296875" style="41" customWidth="1"/>
+    <col min="2" max="2" width="38.81640625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="44.7265625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="30.6328125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="44.81640625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="23.54296875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="32.08984375" style="39" customWidth="1"/>
+    <col min="8" max="8" width="20.26953125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="21.54296875" style="39" customWidth="1"/>
+    <col min="10" max="10" width="60.08984375" style="48" customWidth="1"/>
+    <col min="11" max="11" width="56.54296875" style="67" customWidth="1"/>
+    <col min="12" max="13" width="8.7265625" style="48"/>
+    <col min="14" max="16384" width="8.7265625" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="1:13" s="40" customFormat="1" ht="142" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+    </row>
+    <row r="4" spans="1:13" ht="233" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="78"/>
+    </row>
+    <row r="5" spans="1:13" ht="159.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" s="74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="134" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="49.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" s="55"/>
+    </row>
+    <row r="8" spans="1:13" ht="193" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="199" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="69" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="180" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="63.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="216.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" s="61" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H6" r:id="rId1" xr:uid="{ACCF7B7E-41ED-4E02-92A0-BD8A72B748AA}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{E8845E75-6116-413D-8040-EA34D04966E8}"/>
+    <hyperlink ref="H7" r:id="rId3" xr:uid="{B9D11C62-96B9-46F2-972B-406CA3FEA699}"/>
+    <hyperlink ref="H8" r:id="rId4" xr:uid="{D60B24E2-6E41-4C97-8E79-F000B158EA6D}"/>
+    <hyperlink ref="H9" r:id="rId5" xr:uid="{5DF14482-3174-45D0-AD98-759BE511DC20}"/>
+    <hyperlink ref="H10" r:id="rId6" xr:uid="{3D791FB4-D219-49EA-AD70-42AB8E35235B}"/>
+    <hyperlink ref="H11" r:id="rId7" xr:uid="{6FAB7523-8489-4C55-9A64-0364AD21E2C9}"/>
+    <hyperlink ref="H12" r:id="rId8" xr:uid="{87471FFD-2CBC-4A02-A51E-4F165879C854}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -2380,14 +3549,14 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E77DD188-3E6B-485F-81E2-43168AF20779}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="5d0a0686-a3c6-401e-8596-31c6446e2673"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="5d0a0686-a3c6-401e-8596-31c6446e2673"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="9f9f0ed7-b6e7-4e0d-9b4d-b4e73fb1e1ba"/>
   </ds:schemaRefs>
@@ -2411,4 +3580,10 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Privileged" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
+</clbl:labelList>
 </file>
--- a/organize/raci-template.xlsx
+++ b/organize/raci-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brblanch\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoftapc-my.sharepoint.com/personal/ronelv_microsoft_com/Documents/Microsoft Teams Chat Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B8FA09A-F092-47F1-84B4-33B8A2EA4A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="295" documentId="8_{ACACD675-5BAE-40FB-B2B0-0DD77C38D9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A80E210E-62F5-48A5-8769-7863CA1A18FC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{AB571973-26AF-4BE6-A95F-82C0E308CB25}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{AB571973-26AF-4BE6-A95F-82C0E308CB25}"/>
   </bookViews>
   <sheets>
     <sheet name="Org Alignment" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="122">
   <si>
     <t>Define high level alignment of required capabilities across the org structure</t>
   </si>
@@ -556,30 +565,6 @@
   </si>
   <si>
     <t>Microsoft Azure Well-Architected Framework,Azure Advisor Score, Landing Zone Templates</t>
-  </si>
-  <si>
-    <t>Cloud Security</t>
-  </si>
-  <si>
-    <t>Manage and operate the security posture</t>
-  </si>
-  <si>
-    <t>Leadership</t>
-  </si>
-  <si>
-    <t>Posture &amp; Compliance</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
-    <t>Cloud security team</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>CCoE-Cloud security</t>
   </si>
 </sst>
 </file>
@@ -685,7 +670,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -907,6 +892,21 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1178,7 +1178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1209,14 +1209,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
@@ -1270,13 +1271,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1285,91 +1286,91 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1484,13 +1485,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>375808</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>147768</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1829,53 +1830,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB8EBB1-C082-49F7-95F1-16A7569FC7E5}">
-  <dimension ref="B1:J35"/>
+  <dimension ref="B1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.54296875" customWidth="1"/>
-    <col min="4" max="4" width="27.26953125" customWidth="1"/>
-    <col min="5" max="5" width="21.1796875" customWidth="1"/>
+    <col min="3" max="3" width="40.53125" customWidth="1"/>
+    <col min="4" max="4" width="27.265625" customWidth="1"/>
+    <col min="5" max="5" width="21.19921875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="20.26953125" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" customWidth="1"/>
-    <col min="9" max="9" width="19.1796875" customWidth="1"/>
-    <col min="10" max="10" width="17.453125" customWidth="1"/>
+    <col min="7" max="7" width="20.265625" customWidth="1"/>
+    <col min="8" max="8" width="16.73046875" customWidth="1"/>
+    <col min="9" max="9" width="19.19921875" customWidth="1"/>
+    <col min="10" max="10" width="17.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="90" t="s">
+    <row r="1" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:10" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="92"/>
-    </row>
-    <row r="3" spans="2:10" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="37"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35" t="s">
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="93"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B3" s="38"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B4" s="16" t="s">
         <v>5</v>
       </c>
@@ -1895,8 +1896,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B5" s="32" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B5" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1907,8 +1908,8 @@
       <c r="F5" s="2"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="32" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B6" s="33" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1919,8 +1920,8 @@
       <c r="F6" s="2"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B7" s="32" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B7" s="33" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1931,8 +1932,8 @@
       <c r="F7" s="2"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B8" s="32" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B8" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1943,8 +1944,8 @@
       <c r="F8" s="2"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B9" s="32" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B9" s="33" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1955,131 +1956,133 @@
       <c r="F9" s="2"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="32" t="s">
-        <v>122</v>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B10" s="33" t="s">
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="33" t="s">
+    <row r="11" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="90" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="2:10" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="14" spans="2:10" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="93" t="s">
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="95"/>
-    </row>
-    <row r="16" spans="2:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="88" t="s">
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="96"/>
+    </row>
+    <row r="15" spans="2:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="85" t="s">
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="87"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="37"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="38"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="88"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B16" s="38"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="88"/>
+    </row>
+    <row r="17" spans="2:10" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B17" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>4</v>
+      </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="87"/>
-    </row>
-    <row r="18" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="36"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" s="19" t="s">
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B18" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C18" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D18" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G18" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H18" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I18" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="23" t="s">
+      <c r="J18" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B19" s="11"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="12"/>
+      <c r="G19" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="25"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B20" s="11"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -2088,26 +2091,26 @@
         <v>13</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="25"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B21" s="11"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="12"/>
       <c r="G21" s="24" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="25"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B22" s="11"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -2116,26 +2119,26 @@
         <v>19</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="25"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B23" s="11"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="12"/>
       <c r="G23" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="25"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B24" s="11"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -2144,12 +2147,12 @@
         <v>21</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="25"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B25" s="11"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -2158,12 +2161,12 @@
         <v>21</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="25"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B26" s="11"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -2172,26 +2175,26 @@
         <v>21</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="25"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B27" s="11"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="12"/>
       <c r="G27" s="24" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="25"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B28" s="11"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -2200,26 +2203,26 @@
         <v>15</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="25"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B29" s="11"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="12"/>
       <c r="G29" s="24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="25"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B30" s="11"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -2228,78 +2231,52 @@
         <v>11</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" s="10"/>
       <c r="J30" s="25"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B31" s="11"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="12"/>
-      <c r="G31" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="G31" s="24"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="25"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B32" s="11"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="12"/>
-      <c r="G32" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>124</v>
-      </c>
+      <c r="G32" s="24"/>
+      <c r="H32" s="10"/>
       <c r="I32" s="10"/>
       <c r="J32" s="25"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="11"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="12"/>
-      <c r="G33" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="I33" s="10"/>
-      <c r="J33" s="25"/>
-    </row>
-    <row r="34" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-      <c r="G34" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="I34" s="26"/>
-      <c r="J34" s="27"/>
-    </row>
-    <row r="35" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="28"/>
+    </row>
+    <row r="34" spans="2:10" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="G16:J17"/>
-    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="G15:J16"/>
+    <mergeCell ref="B15:E15"/>
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:J14"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D12" xr:uid="{413798D1-14CC-49B8-BDBB-05FC1C736071}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D11" xr:uid="{413798D1-14CC-49B8-BDBB-05FC1C736071}">
       <formula1>"""Align to org structure"", ""Planned alignment"",  ""Not needed"", ""To be evaluated"", "</formula1>
     </dataValidation>
   </dataValidations>
@@ -2309,12 +2286,11 @@
     <hyperlink ref="B7" r:id="rId3" xr:uid="{F83D6C1A-A1AD-4037-B3B1-06923B4D0276}"/>
     <hyperlink ref="B8" r:id="rId4" xr:uid="{EE1058B6-9BD3-40FB-8288-1C65BB7F2B24}"/>
     <hyperlink ref="B9" r:id="rId5" xr:uid="{1B3B4551-1D96-4690-A3FA-72E549C64BFE}"/>
-    <hyperlink ref="B11" r:id="rId6" xr:uid="{125496A0-20BD-4FEB-AF09-F7381CB360F5}"/>
-    <hyperlink ref="B12" r:id="rId7" xr:uid="{367B5135-8B18-4C27-A7E0-8B259C5CAD6E}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{D15CE963-4F62-4302-A01F-59F42D5A85CE}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{125496A0-20BD-4FEB-AF09-F7381CB360F5}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{367B5135-8B18-4C27-A7E0-8B259C5CAD6E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -2326,155 +2302,155 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="24.1796875" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" customWidth="1"/>
-    <col min="8" max="8" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.19921875" customWidth="1"/>
+    <col min="3" max="3" width="22.796875" customWidth="1"/>
+    <col min="4" max="4" width="16.53125" customWidth="1"/>
+    <col min="5" max="5" width="20.53125" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="14.53125" customWidth="1"/>
+    <col min="8" max="8" width="15.53125" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="B2" s="28" t="s">
+    <row r="2" spans="2:10" ht="28.5" x14ac:dyDescent="0.85">
+      <c r="B2" s="29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="33.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29" t="s">
+    <row r="4" spans="2:10" ht="33.4" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="30" t="s">
+    <row r="5" spans="2:10" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="30" t="s">
+      <c r="G5" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="30" t="s">
+    <row r="6" spans="2:10" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="30" t="s">
+      <c r="C6" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="31" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B8" s="30" t="s">
+    <row r="7" spans="2:10" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+    </row>
+    <row r="8" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="32" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>71</v>
       </c>
@@ -2482,7 +2458,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>73</v>
       </c>
@@ -2490,7 +2466,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>75</v>
       </c>
@@ -2498,7 +2474,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>77</v>
       </c>
@@ -2526,381 +2502,323 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72EF455-C7C4-4BE0-B05C-CCAD85B1AB1E}">
-  <dimension ref="B2:K25"/>
+  <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="24.19921875" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" customWidth="1"/>
-    <col min="7" max="8" width="14.54296875" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="4" max="4" width="16.53125" customWidth="1"/>
+    <col min="5" max="5" width="20.53125" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="14.53125" customWidth="1"/>
+    <col min="8" max="8" width="15.53125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="B2" s="28" t="s">
+    <row r="2" spans="2:10" ht="28.5" x14ac:dyDescent="0.85">
+      <c r="B2" s="29" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="33.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="29"/>
-      <c r="C5" s="29" t="s">
+    <row r="5" spans="2:10" ht="33.4" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="I5" s="29" t="s">
+      <c r="H5" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="I5" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="J5" s="30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="30" t="s">
+    <row r="6" spans="2:10" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="30" t="s">
+      <c r="C6" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="30" t="s">
+      <c r="F6" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="I6" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="J6" s="31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="30" t="s">
+    <row r="7" spans="2:10" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="30" t="s">
+      <c r="D7" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="30" t="s">
+      <c r="F7" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="30" t="s">
+    </row>
+    <row r="8" spans="2:10" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="31" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="30" t="s">
+      <c r="I8" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="J9" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" s="30" t="s">
+      <c r="I10" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="E11" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="K9" s="30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" s="30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-    </row>
-    <row r="14" spans="2:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="B14" s="30" t="s">
+    </row>
+    <row r="12" spans="2:10" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B13" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C13" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D13" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E13" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F13" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G13" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="I14" s="31" t="s">
+      <c r="H13" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="J14" s="31" t="s">
+      <c r="I13" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="31" t="s">
+      <c r="J13" s="32" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{3234C89B-9AB2-478E-9316-4F988EA27559}"/>
-    <hyperlink ref="C14" r:id="rId2" xr:uid="{3945B433-F36A-47F7-81F3-3217A70B44EA}"/>
-    <hyperlink ref="D14" r:id="rId3" xr:uid="{66EC8D73-7E0C-46A6-B289-AC037C945EBA}"/>
-    <hyperlink ref="E14" r:id="rId4" xr:uid="{37E5CC3F-B59C-4D9C-B0D9-C9C2648545D9}"/>
-    <hyperlink ref="F14" r:id="rId5" xr:uid="{DD4FF0E3-EAE0-469C-ACDD-C865EBB378ED}"/>
-    <hyperlink ref="G14" r:id="rId6" xr:uid="{7C8E9920-0270-4770-84B0-00A2DD3F4658}"/>
-    <hyperlink ref="I14" r:id="rId7" xr:uid="{7002ECE4-5F74-45CB-8AAA-D54AAD68F48C}"/>
-    <hyperlink ref="J14" r:id="rId8" xr:uid="{A952527B-8DAC-4C2B-BB35-4E0F883A762B}"/>
-    <hyperlink ref="K14" r:id="rId9" xr:uid="{03970A6A-02B7-44F7-86E2-F33B08E4D592}"/>
-    <hyperlink ref="H14" r:id="rId10" xr:uid="{28BD77ED-2D3E-4929-BB52-7E05B9F6BC04}"/>
+    <hyperlink ref="C13" r:id="rId2" xr:uid="{3945B433-F36A-47F7-81F3-3217A70B44EA}"/>
+    <hyperlink ref="D13" r:id="rId3" xr:uid="{66EC8D73-7E0C-46A6-B289-AC037C945EBA}"/>
+    <hyperlink ref="E13" r:id="rId4" xr:uid="{37E5CC3F-B59C-4D9C-B0D9-C9C2648545D9}"/>
+    <hyperlink ref="F13" r:id="rId5" xr:uid="{DD4FF0E3-EAE0-469C-ACDD-C865EBB378ED}"/>
+    <hyperlink ref="G13" r:id="rId6" xr:uid="{7C8E9920-0270-4770-84B0-00A2DD3F4658}"/>
+    <hyperlink ref="H13" r:id="rId7" xr:uid="{7002ECE4-5F74-45CB-8AAA-D54AAD68F48C}"/>
+    <hyperlink ref="I13" r:id="rId8" xr:uid="{A952527B-8DAC-4C2B-BB35-4E0F883A762B}"/>
+    <hyperlink ref="J13" r:id="rId9" xr:uid="{03970A6A-02B7-44F7-86E2-F33B08E4D592}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
-  <drawing r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -2908,417 +2826,417 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7976A494-BCBD-49B6-B4BB-BF67D4A68194}">
   <dimension ref="A2:M21"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" style="41" customWidth="1"/>
-    <col min="2" max="2" width="38.81640625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="44.7265625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="30.6328125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="44.81640625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" style="39" customWidth="1"/>
-    <col min="7" max="7" width="32.08984375" style="39" customWidth="1"/>
-    <col min="8" max="8" width="20.26953125" style="39" customWidth="1"/>
-    <col min="9" max="9" width="21.54296875" style="39" customWidth="1"/>
-    <col min="10" max="10" width="60.08984375" style="48" customWidth="1"/>
-    <col min="11" max="11" width="56.54296875" style="67" customWidth="1"/>
-    <col min="12" max="13" width="8.7265625" style="48"/>
-    <col min="14" max="16384" width="8.7265625" style="39"/>
+    <col min="1" max="1" width="20.53125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="38.796875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="44.73046875" style="40" customWidth="1"/>
+    <col min="4" max="4" width="30.59765625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="44.796875" style="40" customWidth="1"/>
+    <col min="6" max="6" width="23.53125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="32.06640625" style="40" customWidth="1"/>
+    <col min="8" max="8" width="20.265625" style="40" customWidth="1"/>
+    <col min="9" max="9" width="21.53125" style="40" customWidth="1"/>
+    <col min="10" max="10" width="60.06640625" style="49" customWidth="1"/>
+    <col min="11" max="11" width="56.53125" style="68" customWidth="1"/>
+    <col min="12" max="13" width="8.73046875" style="49"/>
+    <col min="14" max="16384" width="8.73046875" style="40"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="1:13" s="40" customFormat="1" ht="142" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="82" t="s">
+    <row r="2" spans="1:13" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="3" spans="1:13" s="41" customFormat="1" ht="142.05000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="53" t="s">
+      <c r="J3" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="68" t="s">
+      <c r="K3" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-    </row>
-    <row r="4" spans="1:13" ht="233" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="83" t="s">
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+    </row>
+    <row r="4" spans="1:13" ht="233" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A4" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="75" t="s">
+      <c r="F4" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="78"/>
-    </row>
-    <row r="5" spans="1:13" ht="159.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="84" t="s">
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="79"/>
+    </row>
+    <row r="5" spans="1:13" ht="159.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="71" t="s">
+      <c r="C5" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="72" t="s">
+      <c r="H5" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="71" t="s">
+      <c r="I5" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="J5" s="73" t="s">
+      <c r="J5" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="K5" s="74" t="s">
+      <c r="K5" s="75" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="134" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="65" t="s">
+    <row r="6" spans="1:13" ht="134" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="46" t="s">
+      <c r="B6" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="43" t="s">
+      <c r="D6" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="K6" s="55" t="s">
+      <c r="K6" s="56" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="49.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="65" t="s">
+    <row r="7" spans="1:13" ht="49.5" x14ac:dyDescent="0.6">
+      <c r="A7" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="K7" s="55"/>
-    </row>
-    <row r="8" spans="1:13" ht="193" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="65" t="s">
+      <c r="K7" s="56"/>
+    </row>
+    <row r="8" spans="1:13" ht="193.05" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="44" t="s">
+      <c r="B8" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="42" t="s">
+      <c r="E8" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="K8" s="54" t="s">
+      <c r="K8" s="55" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="199" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="65" t="s">
+    <row r="9" spans="1:13" ht="199.05" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="42" t="s">
+      <c r="B9" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="46" t="s">
+      <c r="D9" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="43" t="s">
+      <c r="F9" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="J9" s="49" t="s">
+      <c r="J9" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="K9" s="69" t="s">
+      <c r="K9" s="70" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="180" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="65" t="s">
+    <row r="10" spans="1:13" ht="180" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="44" t="s">
+      <c r="E10" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="43" t="s">
+      <c r="H10" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="42" t="s">
+      <c r="I10" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="J10" s="50" t="s">
+      <c r="J10" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="K10" s="54" t="s">
+      <c r="K10" s="55" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="63.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="65" t="s">
+    <row r="11" spans="1:13" ht="63.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="H11" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="J11" s="50" t="s">
+      <c r="J11" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="55" t="s">
+      <c r="K11" s="56" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="216.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="66" t="s">
+    <row r="12" spans="1:13" ht="216.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A12" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="57" t="s">
+      <c r="D12" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="59" t="s">
+      <c r="H12" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="56" t="s">
+      <c r="I12" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="J12" s="60" t="s">
+      <c r="J12" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="K12" s="61" t="s">
+      <c r="K12" s="62" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.6">
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.6">
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.6">
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.6">
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.6">
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3337,23 +3255,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="9f9f0ed7-b6e7-4e0d-9b4d-b4e73fb1e1ba" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F4EB56A014601647A8A96FC1FEAD7A4D" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ce20bcdb31e35f84e91aaebcc88b9c29">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9f9f0ed7-b6e7-4e0d-9b4d-b4e73fb1e1ba" xmlns:ns3="5d0a0686-a3c6-401e-8596-31c6446e2673" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8a5f8733a3652043e24787deaf46a0bd" ns2:_="" ns3:_="">
     <xsd:import namespace="9f9f0ed7-b6e7-4e0d-9b4d-b4e73fb1e1ba"/>
@@ -3538,10 +3439,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="9f9f0ed7-b6e7-4e0d-9b4d-b4e73fb1e1ba" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{317DBB47-F340-434F-9FE6-0BC3D8459AF6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7742B622-1320-460F-82D3-3D60BC8B68F7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9f9f0ed7-b6e7-4e0d-9b4d-b4e73fb1e1ba"/>
+    <ds:schemaRef ds:uri="5d0a0686-a3c6-401e-8596-31c6446e2673"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3564,20 +3493,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7742B622-1320-460F-82D3-3D60BC8B68F7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{317DBB47-F340-434F-9FE6-0BC3D8459AF6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9f9f0ed7-b6e7-4e0d-9b4d-b4e73fb1e1ba"/>
-    <ds:schemaRef ds:uri="5d0a0686-a3c6-401e-8596-31c6446e2673"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
